--- a/Deliverables/Understanding Data/Metadata - Vikash.xlsx
+++ b/Deliverables/Understanding Data/Metadata - Vikash.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABEACE02EC6B639863985BDE589E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5B7CA38E-CC25-4EAC-B15B-2337EC36F420}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_F25DC773A252ABEACE02EC6B639863985BDE589E" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{181723B8-3295-4AA1-BDAE-8F5805301ABB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Grids" sheetId="2" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Grids!$A$1:$B$294</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="153">
   <si>
     <t>Comprehensive Species Tally</t>
   </si>
@@ -103,19 +108,405 @@
   </si>
   <si>
     <t>Vikash, Edem, Harwinder</t>
+  </si>
+  <si>
+    <t>Allaria petiolata</t>
+  </si>
+  <si>
+    <t>Aralia elata</t>
+  </si>
+  <si>
+    <t>Fallopia japonica</t>
+  </si>
+  <si>
+    <t>Hedera helix</t>
+  </si>
+  <si>
+    <t>Lonicera japonica</t>
+  </si>
+  <si>
+    <t>Lonicera maakia</t>
+  </si>
+  <si>
+    <t>Phellodendron amurense</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>J18</t>
+  </si>
+  <si>
+    <t>J19</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>K13</t>
+  </si>
+  <si>
+    <t>K15</t>
+  </si>
+  <si>
+    <t>K18</t>
+  </si>
+  <si>
+    <t>K20</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>N17</t>
+  </si>
+  <si>
+    <t>N18</t>
+  </si>
+  <si>
+    <t>N19</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>K14</t>
+  </si>
+  <si>
+    <t>K16</t>
+  </si>
+  <si>
+    <t>K17</t>
+  </si>
+  <si>
+    <t>K19</t>
+  </si>
+  <si>
+    <t>K21</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>N13</t>
+  </si>
+  <si>
+    <t>N14</t>
+  </si>
+  <si>
+    <t>N15</t>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>J24</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>L22</t>
+  </si>
+  <si>
+    <t>L23</t>
+  </si>
+  <si>
+    <t>L24</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>N20</t>
+  </si>
+  <si>
+    <t>N21</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>J16</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>L25</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>N22</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>J23</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>k19</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>CWD</t>
+  </si>
+  <si>
+    <t>Fence</t>
+  </si>
+  <si>
+    <t>IPM</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Pesticide application</t>
+  </si>
+  <si>
+    <t>Planting and setup</t>
+  </si>
+  <si>
+    <t>Propagation</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Trail maintenance</t>
+  </si>
+  <si>
+    <t>Tree Work</t>
+  </si>
+  <si>
+    <t>Veg-plot</t>
+  </si>
+  <si>
+    <t>VLB</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -178,6 +569,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,4 +1020,2465 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4864B733-F332-4746-B8DA-C795519C4EE6}">
+  <dimension ref="A1:B294"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>32</v>
+      </c>
+      <c r="B113" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>32</v>
+      </c>
+      <c r="B123" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B127" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>32</v>
+      </c>
+      <c r="B130" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>28</v>
+      </c>
+      <c r="B133" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>31</v>
+      </c>
+      <c r="B136" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>31</v>
+      </c>
+      <c r="B141" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>29</v>
+      </c>
+      <c r="B150" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>28</v>
+      </c>
+      <c r="B152" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>29</v>
+      </c>
+      <c r="B153" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>26</v>
+      </c>
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>29</v>
+      </c>
+      <c r="B157" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>32</v>
+      </c>
+      <c r="B158" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>26</v>
+      </c>
+      <c r="B159" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>28</v>
+      </c>
+      <c r="B161" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>29</v>
+      </c>
+      <c r="B162" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>32</v>
+      </c>
+      <c r="B163" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>26</v>
+      </c>
+      <c r="B164" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>28</v>
+      </c>
+      <c r="B166" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>29</v>
+      </c>
+      <c r="B167" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>30</v>
+      </c>
+      <c r="B168" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>31</v>
+      </c>
+      <c r="B169" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>32</v>
+      </c>
+      <c r="B170" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>26</v>
+      </c>
+      <c r="B171" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>26</v>
+      </c>
+      <c r="B174" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>31</v>
+      </c>
+      <c r="B177" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>32</v>
+      </c>
+      <c r="B178" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>26</v>
+      </c>
+      <c r="B179" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>28</v>
+      </c>
+      <c r="B181" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>31</v>
+      </c>
+      <c r="B182" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>32</v>
+      </c>
+      <c r="B183" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>26</v>
+      </c>
+      <c r="B184" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>28</v>
+      </c>
+      <c r="B186" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>30</v>
+      </c>
+      <c r="B187" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>31</v>
+      </c>
+      <c r="B188" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>32</v>
+      </c>
+      <c r="B189" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>26</v>
+      </c>
+      <c r="B190" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>28</v>
+      </c>
+      <c r="B192" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>30</v>
+      </c>
+      <c r="B193" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>31</v>
+      </c>
+      <c r="B194" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>32</v>
+      </c>
+      <c r="B195" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>27</v>
+      </c>
+      <c r="B197" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>28</v>
+      </c>
+      <c r="B198" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>30</v>
+      </c>
+      <c r="B199" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>31</v>
+      </c>
+      <c r="B200" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>32</v>
+      </c>
+      <c r="B201" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>26</v>
+      </c>
+      <c r="B202" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>27</v>
+      </c>
+      <c r="B203" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>28</v>
+      </c>
+      <c r="B204" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>30</v>
+      </c>
+      <c r="B205" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>31</v>
+      </c>
+      <c r="B206" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>32</v>
+      </c>
+      <c r="B207" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>26</v>
+      </c>
+      <c r="B208" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>28</v>
+      </c>
+      <c r="B209" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>31</v>
+      </c>
+      <c r="B210" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>32</v>
+      </c>
+      <c r="B211" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>26</v>
+      </c>
+      <c r="B212" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>28</v>
+      </c>
+      <c r="B213" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>31</v>
+      </c>
+      <c r="B214" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>28</v>
+      </c>
+      <c r="B215" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>26</v>
+      </c>
+      <c r="B216" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>28</v>
+      </c>
+      <c r="B217" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>29</v>
+      </c>
+      <c r="B218" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>32</v>
+      </c>
+      <c r="B219" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>26</v>
+      </c>
+      <c r="B220" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>28</v>
+      </c>
+      <c r="B221" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>29</v>
+      </c>
+      <c r="B222" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>31</v>
+      </c>
+      <c r="B223" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>26</v>
+      </c>
+      <c r="B224" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>28</v>
+      </c>
+      <c r="B225" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>29</v>
+      </c>
+      <c r="B226" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>32</v>
+      </c>
+      <c r="B227" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>27</v>
+      </c>
+      <c r="B228" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>28</v>
+      </c>
+      <c r="B229" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>27</v>
+      </c>
+      <c r="B230" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>31</v>
+      </c>
+      <c r="B231" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>32</v>
+      </c>
+      <c r="B232" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>27</v>
+      </c>
+      <c r="B233" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>32</v>
+      </c>
+      <c r="B234" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>27</v>
+      </c>
+      <c r="B235" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>26</v>
+      </c>
+      <c r="B236" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>27</v>
+      </c>
+      <c r="B237" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>28</v>
+      </c>
+      <c r="B238" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>31</v>
+      </c>
+      <c r="B239" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>32</v>
+      </c>
+      <c r="B240" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>26</v>
+      </c>
+      <c r="B241" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>28</v>
+      </c>
+      <c r="B242" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>32</v>
+      </c>
+      <c r="B243" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>26</v>
+      </c>
+      <c r="B244" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>28</v>
+      </c>
+      <c r="B245" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>32</v>
+      </c>
+      <c r="B246" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>28</v>
+      </c>
+      <c r="B247" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>31</v>
+      </c>
+      <c r="B248" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>28</v>
+      </c>
+      <c r="B249" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>31</v>
+      </c>
+      <c r="B250" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>31</v>
+      </c>
+      <c r="B251" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>26</v>
+      </c>
+      <c r="B252" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>29</v>
+      </c>
+      <c r="B253" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>26</v>
+      </c>
+      <c r="B254" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>28</v>
+      </c>
+      <c r="B255" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>29</v>
+      </c>
+      <c r="B256" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>31</v>
+      </c>
+      <c r="B257" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>32</v>
+      </c>
+      <c r="B258" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>26</v>
+      </c>
+      <c r="B259" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>28</v>
+      </c>
+      <c r="B260" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>31</v>
+      </c>
+      <c r="B261" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>28</v>
+      </c>
+      <c r="B262" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>31</v>
+      </c>
+      <c r="B263" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>32</v>
+      </c>
+      <c r="B264" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>26</v>
+      </c>
+      <c r="B265" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>32</v>
+      </c>
+      <c r="B266" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>26</v>
+      </c>
+      <c r="B267" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>28</v>
+      </c>
+      <c r="B268" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>31</v>
+      </c>
+      <c r="B269" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>28</v>
+      </c>
+      <c r="B270" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>32</v>
+      </c>
+      <c r="B271" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>28</v>
+      </c>
+      <c r="B272" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>28</v>
+      </c>
+      <c r="B273" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>32</v>
+      </c>
+      <c r="B274" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>26</v>
+      </c>
+      <c r="B275" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>28</v>
+      </c>
+      <c r="B276" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>28</v>
+      </c>
+      <c r="B277" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>31</v>
+      </c>
+      <c r="B278" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>28</v>
+      </c>
+      <c r="B279" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>28</v>
+      </c>
+      <c r="B280" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>32</v>
+      </c>
+      <c r="B281" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>28</v>
+      </c>
+      <c r="B282" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>31</v>
+      </c>
+      <c r="B283" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>32</v>
+      </c>
+      <c r="B284" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>28</v>
+      </c>
+      <c r="B285" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>28</v>
+      </c>
+      <c r="B286" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>31</v>
+      </c>
+      <c r="B287" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>31</v>
+      </c>
+      <c r="B288" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>31</v>
+      </c>
+      <c r="B289" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>31</v>
+      </c>
+      <c r="B290" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>31</v>
+      </c>
+      <c r="B291" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>31</v>
+      </c>
+      <c r="B292" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>31</v>
+      </c>
+      <c r="B293" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>31</v>
+      </c>
+      <c r="B294" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B294" xr:uid="{E7A0A24F-FAFE-4A71-8F27-2B83324230B4}">
+    <sortState ref="A2:B294">
+      <sortCondition ref="B1:B294"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC1EE71-D454-4F11-8BE2-C8367360B30A}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>